--- a/Login/UserData/form_responses.xlsx
+++ b/Login/UserData/form_responses.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,7 +423,7 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="5" customWidth="1" min="2" max="2"/>
-    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
     <col width="4" customWidth="1" min="5" max="5"/>
     <col width="4" customWidth="1" min="6" max="6"/>
@@ -1202,6 +1202,111 @@
         </is>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025/06/25 12:52:13</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>j@j.j</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1987/06/25</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>20</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025/06/25 12:56:08</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>qwe</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>qwe@qw.qwe</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2000/06/25</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>20</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>その他</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025/06/25 13:00:29</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>sds</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>sds@sds.sds</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2005/06/25</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>20</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>男性</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>高校1年</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
